--- a/Ryan_bin_centered.xlsx
+++ b/Ryan_bin_centered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,21 @@
           <t>RT_fortran_center</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>bin_centering_correction</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>RT_bc</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>RTerr_bc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -614,7 +629,16 @@
         <v>0.0012662248</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.7846065e-07</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8802788472578457</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0002664392378428845</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0001534044096671153</v>
       </c>
     </row>
     <row r="3">
@@ -688,6 +712,15 @@
       <c r="V3" t="n">
         <v>2.7606593e-06</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.8518319965181969</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0004082966326501115</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0001973108129074702</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,7 +785,7 @@
         <v>0.010884269</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5.0984876e-06</v>
       </c>
       <c r="U4" t="n">
         <v>0.009626725100000001</v>
@@ -760,6 +793,15 @@
       <c r="V4" t="n">
         <v>4.1810636e-06</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.8200595800213379</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0003931290279811415</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.000189981013521987</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +874,15 @@
       <c r="V5" t="n">
         <v>6.529896e-06</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.7817168060189849</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0005577402022154835</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0001811310624558323</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -904,6 +955,15 @@
       <c r="V6" t="n">
         <v>1.0670639e-05</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.4999009861795259</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.001225087321737399</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0001743569971012029</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -976,6 +1036,15 @@
       <c r="V7" t="n">
         <v>3.564249e-05</v>
       </c>
+      <c r="W7" t="n">
+        <v>0.07723681832543033</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0002832495306439969</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.233381781047785e-05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1117,15 @@
       <c r="V8" t="n">
         <v>0.003225472</v>
       </c>
+      <c r="W8" t="n">
+        <v>0.2262964591435403</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.001840902528337161</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.843574542294337e-05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1118,7 +1196,16 @@
         <v>0.02689175</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.02024272</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.775964256160909</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.007931195366233374</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0002690050539760196</v>
       </c>
     </row>
     <row r="10">
@@ -1192,6 +1279,15 @@
       <c r="V10" t="n">
         <v>0.0082593602</v>
       </c>
+      <c r="W10" t="n">
+        <v>2.820529884753305</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.02785630679946383</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0006542992992432202</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1264,6 +1360,15 @@
       <c r="V11" t="n">
         <v>0.0032668337</v>
       </c>
+      <c r="W11" t="n">
+        <v>0.8910899534135623</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.007205232940758833</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0004646556470318905</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1336,6 +1441,15 @@
       <c r="V12" t="n">
         <v>0.0047000174</v>
       </c>
+      <c r="W12" t="n">
+        <v>0.6770356257564315</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.004374577059861272</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0002737999866769502</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1408,6 +1522,15 @@
       <c r="V13" t="n">
         <v>0.0058717543</v>
       </c>
+      <c r="W13" t="n">
+        <v>0.7384419751603983</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.008502601688660245</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0003428194692833073</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1472,7 +1595,7 @@
         <v>0.010410475</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0031195429</v>
+        <v>0.037872892</v>
       </c>
       <c r="U14" t="n">
         <v>0.0081925851</v>
@@ -1480,6 +1603,15 @@
       <c r="V14" t="n">
         <v>0.016644361</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.439479535917141</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.007715546845604457</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0002041043036684258</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1552,6 +1684,15 @@
       <c r="V15" t="n">
         <v>0.036852832</v>
       </c>
+      <c r="W15" t="n">
+        <v>0.9843060258323484</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.01933984392928905</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0003417973353607966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1622,7 +1763,16 @@
         <v>0.012742193</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0037567079</v>
+        <v>0.025123564</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.555391701280366</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.03247727856969104</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0002719560567757293</v>
       </c>
     </row>
     <row r="17">
@@ -1694,7 +1844,16 @@
         <v>0.011112817</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0043761848</v>
+        <v>0.014526824</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.649305585910448</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.02688251824333428</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0007667705005864903</v>
       </c>
     </row>
     <row r="18">
@@ -1760,7 +1919,7 @@
         <v>0.015498559</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0052322243</v>
+        <v>0.0071183144</v>
       </c>
       <c r="U18" t="n">
         <v>0.011037833</v>
@@ -1768,6 +1927,15 @@
       <c r="V18" t="n">
         <v>0.012048411</v>
       </c>
+      <c r="W18" t="n">
+        <v>1.692593263371452</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.02050875529351589</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0009856981552544678</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1832,7 +2000,7 @@
         <v>0.017027103</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0058317796</v>
+        <v>0.0067086803</v>
       </c>
       <c r="U19" t="n">
         <v>0.011910404</v>
@@ -1840,6 +2008,15 @@
       <c r="V19" t="n">
         <v>0.0066032966</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.9842914410454169</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.009926999668120325</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.0002855712233294889</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1910,7 +2087,16 @@
         <v>0.01234115</v>
       </c>
       <c r="V20" t="n">
-        <v>0.005345505</v>
+        <v>0.0061777422</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.8859642435264834</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.007239050180514202</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.000206072172556915</v>
       </c>
     </row>
     <row r="21">
@@ -1984,6 +2170,15 @@
       <c r="V21" t="n">
         <v>0.0068206268</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.857052420752052</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.006903741933841545</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.0003989004206624693</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2054,7 +2249,16 @@
         <v>0.014637437</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0067088949</v>
+        <v>0.0074458275</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.8605813640336454</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.006482578097347837</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.0003511065860558651</v>
       </c>
     </row>
     <row r="23">
@@ -2128,6 +2332,15 @@
       <c r="V23" t="n">
         <v>0.007942470700000001</v>
       </c>
+      <c r="W23" t="n">
+        <v>0.8636633464501545</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.006862349866043918</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.0003026921589201032</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2200,6 +2413,15 @@
       <c r="V24" t="n">
         <v>0.0086782439</v>
       </c>
+      <c r="W24" t="n">
+        <v>0.8685304009923587</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.007004655379858646</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.0003025466139469837</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2270,7 +2492,16 @@
         <v>0.016696519</v>
       </c>
       <c r="V25" t="n">
-        <v>0.008640284999999999</v>
+        <v>0.009401944000000001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.8734359439332907</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.007612382727788792</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.0003568304403650996</v>
       </c>
     </row>
     <row r="26">
@@ -2336,7 +2567,7 @@
         <v>0.023031517</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0100419</v>
+        <v>0.011012832</v>
       </c>
       <c r="U26" t="n">
         <v>0.016964948</v>
@@ -2344,6 +2575,15 @@
       <c r="V26" t="n">
         <v>0.0097598393</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.8862242972561463</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.008397035575070896</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.0004133043825936453</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2414,7 +2654,16 @@
         <v>0.017276074</v>
       </c>
       <c r="V27" t="n">
-        <v>0.009627886</v>
+        <v>0.010321665</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.9063640730278126</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.008592658225757015</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.0004229329828467148</v>
       </c>
     </row>
     <row r="28">
@@ -2488,6 +2737,15 @@
       <c r="V28" t="n">
         <v>0.010738662</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.9100361271731408</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.008847924966824039</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.0004249360064903604</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2552,7 +2810,7 @@
         <v>0.022931148</v>
       </c>
       <c r="T29" t="n">
-        <v>0.011516579</v>
+        <v>0.012145448</v>
       </c>
       <c r="U29" t="n">
         <v>0.017322168</v>
@@ -2560,6 +2818,15 @@
       <c r="V29" t="n">
         <v>0.011084751</v>
       </c>
+      <c r="W29" t="n">
+        <v>0.9126671161080266</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.008714264471165963</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.0003736494213654011</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2624,7 +2891,7 @@
         <v>0.022915878</v>
       </c>
       <c r="T30" t="n">
-        <v>0.012042882</v>
+        <v>0.012551694</v>
       </c>
       <c r="U30" t="n">
         <v>0.017335584</v>
@@ -2632,6 +2899,15 @@
       <c r="V30" t="n">
         <v>0.011485429</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.9150501119609831</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.008480869245073049</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.0004278560408353536</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2704,6 +2980,15 @@
       <c r="V31" t="n">
         <v>0.011716014</v>
       </c>
+      <c r="W31" t="n">
+        <v>0.9161094638467168</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.009300587348707555</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0003755027282667057</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2768,7 +3053,7 @@
         <v>0.024048083</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01390104</v>
+        <v>0.014164519</v>
       </c>
       <c r="U32" t="n">
         <v>0.018072364</v>
@@ -2776,6 +3061,15 @@
       <c r="V32" t="n">
         <v>0.013030971</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.9199727149224057</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.01011620763879252</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0004848773509303002</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2848,6 +3142,15 @@
       <c r="V33" t="n">
         <v>0.014131641</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.9234534848806136</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.01105587364829258</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0004878855595183545</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2920,6 +3223,15 @@
       <c r="V34" t="n">
         <v>0.016751766</v>
       </c>
+      <c r="W34" t="n">
+        <v>1.013332047696715</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.01330548590224455</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.0005985575983762217</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2992,6 +3304,15 @@
       <c r="V35" t="n">
         <v>0.017568391</v>
       </c>
+      <c r="W35" t="n">
+        <v>1.000478986878117</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.01442696263305417</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.000531988388190919</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3064,6 +3385,15 @@
       <c r="V36" t="n">
         <v>0.018263016</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.9880825863838411</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.01611979309499307</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.0004693280780035457</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3136,6 +3466,15 @@
       <c r="V37" t="n">
         <v>0.018777652</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.9774008940953127</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.01723719681080174</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0007568675440352034</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3208,6 +3547,15 @@
       <c r="V38" t="n">
         <v>0.019140564</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.9684140865187221</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.01773289910073105</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0007553241590031738</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3280,6 +3628,15 @@
       <c r="V39" t="n">
         <v>0.019386034</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.9607550155328231</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.01848194926127212</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0007504430994921092</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3352,6 +3709,15 @@
       <c r="V40" t="n">
         <v>0.019532984</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.9535809794880574</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.01914768725211068</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.0007492771914450374</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3424,6 +3790,15 @@
       <c r="V41" t="n">
         <v>0.019533936</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.9495053869563079</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.01900413859700651</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.0006930974957743108</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3496,6 +3871,15 @@
       <c r="V42" t="n">
         <v>0.019454939</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.9478722697794718</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.01911826321030121</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.00075490981711343</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3568,6 +3952,15 @@
       <c r="V43" t="n">
         <v>0.019251639</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.9481387159059261</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.01879175257521891</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0008734975987989113</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3640,6 +4033,15 @@
       <c r="V44" t="n">
         <v>0.018912417</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.9518383533076409</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.0178952714523066</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.0007086078476279274</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3710,7 +4112,16 @@
         <v>0.027818724</v>
       </c>
       <c r="V45" t="n">
-        <v>0.018571548</v>
+        <v>0.018571592</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.9574057960203481</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.01788580989497527</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0007176112815383351</v>
       </c>
     </row>
     <row r="46">
@@ -3782,7 +4193,16 @@
         <v>0.027078638</v>
       </c>
       <c r="V46" t="n">
-        <v>0.018101423</v>
+        <v>0.018101434</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.9670586612448713</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.01797893938179382</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.000731027728486786</v>
       </c>
     </row>
     <row r="47">
@@ -3848,13 +4268,22 @@
         <v>0.026379824</v>
       </c>
       <c r="T47" t="n">
-        <v>0.017877542</v>
+        <v>0.017877545</v>
       </c>
       <c r="U47" t="n">
         <v>0.026304568</v>
       </c>
       <c r="V47" t="n">
-        <v>0.017538316</v>
+        <v>0.017538319</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.9810250232903902</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.0176729458086176</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.0006227044664110227</v>
       </c>
     </row>
     <row r="48">
@@ -3926,7 +4355,16 @@
         <v>0.025703547</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01706302</v>
+        <v>0.017063021</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.9946584754585244</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.0163437693849913</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.0005732440745353873</v>
       </c>
     </row>
     <row r="49">
@@ -4000,6 +4438,15 @@
       <c r="V49" t="n">
         <v>0.016467529</v>
       </c>
+      <c r="W49" t="n">
+        <v>1.014027452555083</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.01656284702419388</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.0007228369658910359</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4072,6 +4519,15 @@
       <c r="V50" t="n">
         <v>0.015778064</v>
       </c>
+      <c r="W50" t="n">
+        <v>1.039707259477076</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.01589280732514175</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.0006797331035193007</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4144,6 +4600,15 @@
       <c r="V51" t="n">
         <v>0.015261453</v>
       </c>
+      <c r="W51" t="n">
+        <v>1.061622353718229</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0155361402579765</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.0007003769847960779</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4216,6 +4681,15 @@
       <c r="V52" t="n">
         <v>0.014502971</v>
       </c>
+      <c r="W52" t="n">
+        <v>1.097405757264076</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.01451899438453512</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.001028331664875782</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4288,6 +4762,15 @@
       <c r="V53" t="n">
         <v>0.013870989</v>
       </c>
+      <c r="W53" t="n">
+        <v>1.132010055972152</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0145534623683274</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.0009217598448167226</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4360,6 +4843,15 @@
       <c r="V54" t="n">
         <v>0.013139214</v>
       </c>
+      <c r="W54" t="n">
+        <v>1.1769902380108</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.01406604288268631</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.0008124906048674969</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4432,6 +4924,15 @@
       <c r="V55" t="n">
         <v>0.012513701</v>
       </c>
+      <c r="W55" t="n">
+        <v>1.221982520174082</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.01439067266437691</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.0007675476256610802</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4504,6 +5005,15 @@
       <c r="V56" t="n">
         <v>0.011865361</v>
       </c>
+      <c r="W56" t="n">
+        <v>1.274188604416219</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.01425464963771483</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.0009061372759652901</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4576,6 +5086,15 @@
       <c r="V57" t="n">
         <v>0.0059656041</v>
       </c>
+      <c r="W57" t="n">
+        <v>0.7084543318688002</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.007549288324732552</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.0005123309941409161</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4648,6 +5167,15 @@
       <c r="V58" t="n">
         <v>0.0054852715</v>
       </c>
+      <c r="W58" t="n">
+        <v>0.7280744817972337</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.007316045483471475</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.0005895248244652375</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4720,6 +5248,15 @@
       <c r="V59" t="n">
         <v>0.0050518632</v>
       </c>
+      <c r="W59" t="n">
+        <v>0.7494787443363086</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.007680977731389723</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.0005050932633329859</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4792,6 +5329,15 @@
       <c r="V60" t="n">
         <v>0.0047062215</v>
       </c>
+      <c r="W60" t="n">
+        <v>0.7705457348616992</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.008155343385029261</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.0005283284670096008</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4864,6 +5410,15 @@
       <c r="V61" t="n">
         <v>0.0042667301</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.8037856573640034</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.008218932981260536</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.0006919634672290823</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4936,6 +5491,15 @@
       <c r="V62" t="n">
         <v>0.0039488761</v>
       </c>
+      <c r="W62" t="n">
+        <v>0.8343817524261167</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.007577015054592614</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.0007993856412052792</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5008,6 +5572,15 @@
       <c r="V63" t="n">
         <v>0.0036518837</v>
       </c>
+      <c r="W63" t="n">
+        <v>0.8697286265004368</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.006949964434942647</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.000711302994352949</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5080,6 +5653,15 @@
       <c r="V64" t="n">
         <v>0.0033115788</v>
       </c>
+      <c r="W64" t="n">
+        <v>0.9269349148466164</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.007010610849356921</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.0007782704555233234</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5151,6 +5733,15 @@
       </c>
       <c r="V65" t="n">
         <v>0.0030610953</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.9733081491463564</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.006292961311897259</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.0007583484033364562</v>
       </c>
     </row>
   </sheetData>
